--- a/assets/upload/8.f.1-1.publikasi_ilmiah_mhs.xlsx
+++ b/assets/upload/8.f.1-1.publikasi_ilmiah_mhs.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360DC4B-E8A3-4DA7-A218-62E58D59313A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="publikasi_ilmiah" sheetId="1" r:id="rId1"/>
+    <sheet name="publikasi_ilmiah_mhs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KaPulahtaFTUP</author>
     <author>Adm-pulahta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,24 +1037,6 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
